--- a/ClosedXML.Tests/Resource/Examples/Misc/SheetViews.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/SheetViews.xlsx
@@ -538,7 +538,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AZ2000"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="AZ2000" workbookViewId="0"/>
   </x:sheetViews>

--- a/ClosedXML.Tests/Resource/Examples/Misc/SheetViews.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/SheetViews.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>ZoomScale</x:t>
   </x:si>
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -459,7 +459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -484,7 +484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -509,7 +509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -534,7 +534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/SheetViews.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/SheetViews.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="ZoomScale" sheetId="2" r:id="rId2"/>
-    <x:sheet name="ZoomScaleNormal" sheetId="3" r:id="rId3"/>
-    <x:sheet name="ZoomScalePageLayoutView" sheetId="4" r:id="rId4"/>
-    <x:sheet name="ZoomScaleSheetLayoutView" sheetId="5" r:id="rId5"/>
-    <x:sheet name="ZoomScaleTooSmall" sheetId="6" r:id="rId6"/>
-    <x:sheet name="ZoomScaleTooBig" sheetId="7" r:id="rId7"/>
-    <x:sheet name="TopLeftCell" sheetId="8" r:id="rId8"/>
+    <x:sheet name="ZoomScale" sheetId="1" r:id="rId2"/>
+    <x:sheet name="ZoomScaleNormal" sheetId="2" r:id="rId3"/>
+    <x:sheet name="ZoomScalePageLayoutView" sheetId="3" r:id="rId4"/>
+    <x:sheet name="ZoomScaleSheetLayoutView" sheetId="4" r:id="rId5"/>
+    <x:sheet name="ZoomScaleTooSmall" sheetId="5" r:id="rId6"/>
+    <x:sheet name="ZoomScaleTooBig" sheetId="6" r:id="rId7"/>
+    <x:sheet name="TopLeftCell" sheetId="7" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
